--- a/docs/control.xlsx
+++ b/docs/control.xlsx
@@ -442,7 +442,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="20">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -520,10 +520,6 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -607,10 +603,10 @@
   <dimension ref="A1:AMJ33"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H10" activeCellId="0" sqref="H10"/>
+      <selection pane="topLeft" activeCell="G43" activeCellId="0" sqref="G43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="20.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="7.49"/>
@@ -1240,13 +1236,13 @@
       <c r="F18" s="18" t="s">
         <v>48</v>
       </c>
-      <c r="G18" s="20" t="s">
+      <c r="G18" s="7" t="s">
         <v>61</v>
       </c>
       <c r="H18" s="18" t="s">
         <v>48</v>
       </c>
-      <c r="I18" s="20" t="s">
+      <c r="I18" s="7" t="s">
         <v>11</v>
       </c>
       <c r="J18" s="19" t="s">
@@ -1456,7 +1452,7 @@
       <c r="H23" s="18" t="s">
         <v>48</v>
       </c>
-      <c r="I23" s="20" t="s">
+      <c r="I23" s="7" t="s">
         <v>49</v>
       </c>
       <c r="J23" s="19" t="s">
@@ -1787,13 +1783,13 @@
       <c r="F30" s="18" t="s">
         <v>48</v>
       </c>
-      <c r="G30" s="20" t="s">
+      <c r="G30" s="7" t="s">
         <v>61</v>
       </c>
       <c r="H30" s="18" t="s">
         <v>48</v>
       </c>
-      <c r="I30" s="20" t="s">
+      <c r="I30" s="7" t="s">
         <v>11</v>
       </c>
       <c r="J30" s="19" t="s">

--- a/docs/control.xlsx
+++ b/docs/control.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="386" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="385" uniqueCount="95">
   <si>
     <t xml:space="preserve">Description</t>
   </si>
@@ -34,9 +34,6 @@
     <t xml:space="preserve">Register Source</t>
   </si>
   <si>
-    <t xml:space="preserve">Pseudo Latch (Combinatoric with Registered memory)</t>
-  </si>
-  <si>
     <t xml:space="preserve">Detail</t>
   </si>
   <si>
@@ -52,6 +49,12 @@
     <t xml:space="preserve">DL (reg)</t>
   </si>
   <si>
+    <t xml:space="preserve">ABL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ABH</t>
+  </si>
+  <si>
     <t xml:space="preserve">DB</t>
   </si>
   <si>
@@ -80,12 +83,6 @@
   </si>
   <si>
     <t xml:space="preserve">S</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ABL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ABH</t>
   </si>
   <si>
     <t xml:space="preserve">AI</t>
@@ -603,7 +600,7 @@
   <dimension ref="A1:AMJ33"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G43" activeCellId="0" sqref="G43"/>
+      <selection pane="topLeft" activeCell="B41" activeCellId="0" sqref="B41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -612,9 +609,9 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="7.49"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="9.16"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="7.64"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="6" style="0" width="5.7"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="12" style="0" width="2.22"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="16" style="0" width="5.7"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="6" style="0" width="5.7"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="14" style="0" width="2.22"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="18" style="0" width="5.7"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="0" width="5.55"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="21" style="0" width="9.03"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="22" style="0" width="53.35"/>
@@ -630,33 +627,31 @@
       </c>
       <c r="D1" s="3"/>
       <c r="E1" s="3"/>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
       <c r="I1" s="3"/>
-      <c r="J1" s="4" t="s">
+      <c r="J1" s="3"/>
+      <c r="K1" s="3"/>
+      <c r="L1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="K1" s="4"/>
-      <c r="L1" s="4"/>
       <c r="M1" s="4"/>
       <c r="N1" s="4"/>
       <c r="O1" s="4"/>
-      <c r="P1" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q1" s="3"/>
+      <c r="P1" s="4"/>
+      <c r="Q1" s="4"/>
       <c r="R1" s="3"/>
       <c r="S1" s="3"/>
       <c r="T1" s="0"/>
       <c r="U1" s="0"/>
       <c r="V1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="W1" s="2" t="s">
         <v>5</v>
-      </c>
-      <c r="W1" s="2" t="s">
-        <v>6</v>
       </c>
       <c r="ALX1" s="0"/>
       <c r="ALY1" s="0"/>
@@ -674,61 +669,61 @@
     </row>
     <row r="2" s="5" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C2" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="E2" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="F2" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="G2" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="H2" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="H2" s="5" t="s">
+      <c r="I2" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="I2" s="5" t="s">
+      <c r="J2" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="J2" s="5" t="s">
+      <c r="K2" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="K2" s="5" t="s">
+      <c r="L2" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="L2" s="5" t="s">
+      <c r="M2" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="M2" s="5" t="s">
+      <c r="N2" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="N2" s="5" t="s">
+      <c r="O2" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="O2" s="5" t="s">
+      <c r="P2" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="P2" s="5" t="s">
+      <c r="Q2" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="Q2" s="5" t="s">
+      <c r="R2" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="R2" s="5" t="s">
+      <c r="S2" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="S2" s="5" t="s">
+      <c r="T2" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="T2" s="5" t="s">
+      <c r="U2" s="5" t="s">
         <v>24</v>
-      </c>
-      <c r="U2" s="5" t="s">
-        <v>25</v>
       </c>
       <c r="ALX2" s="0"/>
       <c r="ALY2" s="0"/>
@@ -746,100 +741,102 @@
     </row>
     <row r="3" s="7" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B3" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="C3" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="D3" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="D3" s="7" t="s">
+      <c r="E3" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="E3" s="8" t="s">
+      <c r="F3" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="H3" s="9"/>
+      <c r="I3" s="9"/>
+      <c r="J3" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="K3" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="L3" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="F3" s="9"/>
-      <c r="G3" s="9"/>
-      <c r="H3" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="I3" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="J3" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="K3" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="L3" s="9"/>
-      <c r="M3" s="9"/>
+      <c r="M3" s="7" t="s">
+        <v>30</v>
+      </c>
       <c r="N3" s="9"/>
       <c r="O3" s="9"/>
-      <c r="P3" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q3" s="7" t="s">
-        <v>13</v>
-      </c>
+      <c r="P3" s="9"/>
+      <c r="Q3" s="9"/>
       <c r="R3" s="10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="S3" s="10"/>
       <c r="T3" s="10"/>
       <c r="U3" s="10"/>
       <c r="V3" s="7" t="s">
-        <v>33</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="AMI3" s="0"/>
+      <c r="AMJ3" s="0"/>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="B4" s="0" t="s">
         <v>34</v>
       </c>
-      <c r="B4" s="0" t="s">
+      <c r="C4" s="0" t="s">
         <v>35</v>
       </c>
-      <c r="C4" s="0" t="s">
+      <c r="D4" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="D4" s="7" t="s">
+      <c r="E4" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="F4" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="G4" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="H4" s="9"/>
+      <c r="I4" s="9"/>
+      <c r="J4" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="E4" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="F4" s="9"/>
-      <c r="G4" s="9"/>
-      <c r="H4" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="I4" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="J4" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="L4" s="9"/>
-      <c r="M4" s="9"/>
+      <c r="M4" s="7" t="s">
+        <v>37</v>
+      </c>
       <c r="N4" s="9"/>
       <c r="O4" s="9"/>
-      <c r="P4" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q4" s="0" t="s">
-        <v>13</v>
-      </c>
+      <c r="P4" s="9"/>
+      <c r="Q4" s="9"/>
       <c r="R4" s="9"/>
       <c r="S4" s="9"/>
       <c r="T4" s="9"/>
       <c r="U4" s="9"/>
       <c r="V4" s="0" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -847,1096 +844,1107 @@
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="B6" s="0" t="s">
         <v>40</v>
-      </c>
-      <c r="B6" s="0" t="s">
-        <v>41</v>
       </c>
       <c r="E6" s="8"/>
       <c r="V6" s="0" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="B8" s="0" t="s">
         <v>43</v>
-      </c>
-      <c r="B8" s="0" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="9" s="12" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="B9" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="B9" s="12" t="s">
+      <c r="C9" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="C9" s="12" t="s">
-        <v>47</v>
-      </c>
       <c r="D9" s="0" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E9" s="13" t="s">
-        <v>47</v>
-      </c>
-      <c r="F9" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="F9" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="G9" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="H9" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="I9" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="J9" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="G9" s="14" t="s">
-        <v>48</v>
-      </c>
-      <c r="H9" s="12" t="s">
+      <c r="K9" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="I9" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="J9" s="15" t="s">
-        <v>51</v>
-      </c>
-      <c r="K9" s="15" t="s">
-        <v>51</v>
-      </c>
       <c r="L9" s="15" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="M9" s="15" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="N9" s="15" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="O9" s="15" t="s">
-        <v>51</v>
-      </c>
-      <c r="P9" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q9" s="12" t="s">
-        <v>13</v>
+        <v>50</v>
+      </c>
+      <c r="P9" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q9" s="15" t="s">
+        <v>50</v>
       </c>
       <c r="R9" s="14" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="S9" s="14" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="T9" s="14"/>
       <c r="U9" s="14" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="V9" s="12" t="s">
-        <v>52</v>
-      </c>
+        <v>51</v>
+      </c>
+      <c r="AMI9" s="0"/>
+      <c r="AMJ9" s="0"/>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="12" s="12" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="11" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B12" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="C12" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="D12" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="E12" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="F12" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="G12" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="H12" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="I12" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="C12" s="14" t="s">
-        <v>48</v>
-      </c>
-      <c r="D12" s="14" t="s">
-        <v>48</v>
-      </c>
-      <c r="E12" s="13" t="s">
-        <v>47</v>
-      </c>
-      <c r="F12" s="12" t="s">
-        <v>49</v>
-      </c>
-      <c r="G12" s="12" t="s">
+      <c r="J12" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="K12" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="L12" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="M12" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="N12" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="O12" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="P12" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q12" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="R12" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="S12" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="U12" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="H12" s="14" t="s">
-        <v>48</v>
-      </c>
-      <c r="I12" s="14" t="s">
-        <v>48</v>
-      </c>
-      <c r="J12" s="15" t="s">
-        <v>51</v>
-      </c>
-      <c r="K12" s="15" t="s">
-        <v>51</v>
-      </c>
-      <c r="L12" s="15" t="s">
-        <v>51</v>
-      </c>
-      <c r="M12" s="15" t="s">
-        <v>51</v>
-      </c>
-      <c r="N12" s="15" t="s">
-        <v>51</v>
-      </c>
-      <c r="O12" s="15" t="s">
-        <v>51</v>
-      </c>
-      <c r="P12" s="14" t="s">
-        <v>48</v>
-      </c>
-      <c r="Q12" s="14" t="s">
-        <v>48</v>
-      </c>
-      <c r="R12" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="S12" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="U12" s="12" t="s">
+      <c r="V12" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="V12" s="12" t="s">
-        <v>57</v>
-      </c>
+      <c r="AMI12" s="0"/>
+      <c r="AMJ12" s="0"/>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="B13" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="B13" s="7" t="s">
+      <c r="C13" s="0" t="s">
         <v>59</v>
       </c>
-      <c r="C13" s="0" t="s">
+      <c r="D13" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="E13" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="F13" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="G13" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="H13" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="I13" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="J13" s="0" t="s">
         <v>60</v>
       </c>
-      <c r="D13" s="0" t="s">
-        <v>30</v>
-      </c>
-      <c r="E13" s="17" t="s">
-        <v>48</v>
-      </c>
-      <c r="F13" s="18" t="s">
-        <v>48</v>
-      </c>
-      <c r="G13" s="18" t="s">
-        <v>48</v>
-      </c>
-      <c r="H13" s="0" t="s">
-        <v>61</v>
-      </c>
-      <c r="I13" s="0" t="s">
-        <v>50</v>
-      </c>
-      <c r="J13" s="19" t="s">
-        <v>51</v>
-      </c>
-      <c r="K13" s="19" t="s">
-        <v>51</v>
+      <c r="K13" s="0" t="s">
+        <v>49</v>
       </c>
       <c r="L13" s="19" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="M13" s="19" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="N13" s="19" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="O13" s="19" t="s">
-        <v>51</v>
-      </c>
-      <c r="P13" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q13" s="0" t="s">
-        <v>13</v>
+        <v>50</v>
+      </c>
+      <c r="P13" s="19" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q13" s="19" t="s">
+        <v>50</v>
       </c>
       <c r="R13" s="14" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="S13" s="14" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="T13" s="14"/>
       <c r="U13" s="14" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="V13" s="0" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="B15" s="0" t="s">
         <v>62</v>
-      </c>
-      <c r="B15" s="0" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="16" s="12" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="11" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B16" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="C16" s="12" t="s">
         <v>64</v>
       </c>
-      <c r="C16" s="12" t="s">
+      <c r="D16" s="12" t="s">
         <v>65</v>
       </c>
-      <c r="D16" s="12" t="s">
+      <c r="E16" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="F16" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="G16" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="H16" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="I16" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="J16" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="K16" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="L16" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="M16" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="N16" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="O16" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="P16" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q16" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="R16" s="12" t="s">
         <v>66</v>
       </c>
-      <c r="E16" s="13" t="s">
-        <v>47</v>
-      </c>
-      <c r="F16" s="12" t="s">
-        <v>49</v>
-      </c>
-      <c r="G16" s="12" t="s">
+      <c r="S16" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="U16" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="H16" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="I16" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="J16" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="K16" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="L16" s="15" t="s">
-        <v>51</v>
-      </c>
-      <c r="M16" s="15" t="s">
-        <v>51</v>
-      </c>
-      <c r="N16" s="15" t="s">
-        <v>51</v>
-      </c>
-      <c r="O16" s="15" t="s">
-        <v>51</v>
-      </c>
-      <c r="P16" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q16" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="R16" s="12" t="s">
+      <c r="V16" s="12" t="s">
         <v>67</v>
       </c>
-      <c r="S16" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="U16" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="V16" s="12" t="s">
+      <c r="W16" s="12" t="s">
         <v>68</v>
       </c>
-      <c r="W16" s="12" t="s">
-        <v>69</v>
-      </c>
+      <c r="AMI16" s="0"/>
+      <c r="AMJ16" s="0"/>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="16" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B17" s="0" t="s">
+        <v>69</v>
+      </c>
+      <c r="C17" s="0" t="s">
         <v>70</v>
       </c>
-      <c r="C17" s="0" t="s">
-        <v>71</v>
-      </c>
       <c r="D17" s="0" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="F17" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="F17" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="G17" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="H17" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="I17" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="J17" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="K17" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="L17" s="19" t="s">
+        <v>50</v>
+      </c>
+      <c r="M17" s="19" t="s">
+        <v>50</v>
+      </c>
+      <c r="N17" s="19" t="s">
+        <v>50</v>
+      </c>
+      <c r="O17" s="19" t="s">
+        <v>50</v>
+      </c>
+      <c r="P17" s="19" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q17" s="19" t="s">
+        <v>50</v>
+      </c>
+      <c r="R17" s="0" t="s">
         <v>49</v>
       </c>
-      <c r="G17" s="18" t="s">
-        <v>48</v>
-      </c>
-      <c r="H17" s="0" t="s">
-        <v>61</v>
-      </c>
-      <c r="I17" s="0" t="s">
-        <v>49</v>
-      </c>
-      <c r="J17" s="19" t="s">
-        <v>51</v>
-      </c>
-      <c r="K17" s="19" t="s">
-        <v>51</v>
-      </c>
-      <c r="L17" s="19" t="s">
-        <v>51</v>
-      </c>
-      <c r="M17" s="19" t="s">
-        <v>51</v>
-      </c>
-      <c r="N17" s="19" t="s">
-        <v>51</v>
-      </c>
-      <c r="O17" s="19" t="s">
-        <v>51</v>
-      </c>
-      <c r="P17" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q17" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="R17" s="0" t="s">
-        <v>50</v>
-      </c>
       <c r="S17" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="T17" s="7" t="n">
         <v>1</v>
       </c>
       <c r="U17" s="0" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="V17" s="0" t="s">
+        <v>71</v>
+      </c>
+      <c r="W17" s="0" t="s">
         <v>72</v>
-      </c>
-      <c r="W17" s="0" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="16" t="s">
+        <v>73</v>
+      </c>
+      <c r="B18" s="0" t="s">
         <v>74</v>
       </c>
-      <c r="B18" s="0" t="s">
-        <v>75</v>
-      </c>
       <c r="C18" s="0" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D18" s="0" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="F18" s="18" t="s">
-        <v>48</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>61</v>
+        <v>29</v>
+      </c>
+      <c r="F18" s="19" t="s">
+        <v>50</v>
+      </c>
+      <c r="G18" s="0" t="s">
+        <v>14</v>
       </c>
       <c r="H18" s="18" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I18" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="J18" s="19" t="s">
-        <v>51</v>
-      </c>
-      <c r="K18" s="19" t="s">
-        <v>51</v>
+        <v>60</v>
+      </c>
+      <c r="J18" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>12</v>
       </c>
       <c r="L18" s="19" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="M18" s="19" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="N18" s="19" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="O18" s="19" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="P18" s="19" t="s">
-        <v>51</v>
-      </c>
-      <c r="Q18" s="0" t="s">
-        <v>13</v>
+        <v>50</v>
+      </c>
+      <c r="Q18" s="19" t="s">
+        <v>50</v>
       </c>
       <c r="R18" s="18" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="S18" s="18" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="T18" s="18"/>
       <c r="U18" s="18" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="V18" s="0" t="s">
+        <v>75</v>
+      </c>
+      <c r="W18" s="0" t="s">
         <v>76</v>
-      </c>
-      <c r="W18" s="0" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="B20" s="0" t="s">
         <v>78</v>
-      </c>
-      <c r="B20" s="0" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="21" s="12" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="11" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B21" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="C21" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="D21" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="E21" s="13" t="s">
         <v>80</v>
       </c>
-      <c r="C21" s="14" t="s">
+      <c r="F21" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="G21" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="H21" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="D21" s="14" t="s">
-        <v>48</v>
-      </c>
-      <c r="E21" s="13" t="s">
-        <v>81</v>
-      </c>
-      <c r="F21" s="12" t="s">
-        <v>49</v>
-      </c>
-      <c r="G21" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="H21" s="14" t="s">
-        <v>48</v>
-      </c>
-      <c r="I21" s="14" t="s">
-        <v>48</v>
-      </c>
-      <c r="J21" s="15" t="s">
-        <v>51</v>
-      </c>
-      <c r="K21" s="15" t="s">
-        <v>51</v>
+      <c r="I21" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="J21" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="K21" s="14" t="s">
+        <v>47</v>
       </c>
       <c r="L21" s="15" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="M21" s="15" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="N21" s="15" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="O21" s="15" t="s">
-        <v>51</v>
-      </c>
-      <c r="P21" s="14" t="s">
-        <v>48</v>
-      </c>
-      <c r="Q21" s="14" t="s">
-        <v>48</v>
+        <v>50</v>
+      </c>
+      <c r="P21" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q21" s="15" t="s">
+        <v>50</v>
       </c>
       <c r="R21" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="S21" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="S21" s="12" t="s">
-        <v>10</v>
-      </c>
       <c r="U21" s="12" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="V21" s="12" t="s">
-        <v>80</v>
-      </c>
+        <v>79</v>
+      </c>
+      <c r="AMI21" s="0"/>
+      <c r="AMJ21" s="0"/>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="16" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B22" s="0" t="s">
+        <v>81</v>
+      </c>
+      <c r="C22" s="0" t="s">
         <v>82</v>
       </c>
-      <c r="C22" s="0" t="s">
-        <v>83</v>
-      </c>
       <c r="D22" s="0" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E22" s="17" t="s">
-        <v>48</v>
-      </c>
-      <c r="F22" s="18" t="s">
-        <v>48</v>
-      </c>
-      <c r="G22" s="18" t="s">
-        <v>48</v>
-      </c>
-      <c r="H22" s="0" t="s">
-        <v>61</v>
-      </c>
-      <c r="I22" s="0" t="s">
-        <v>50</v>
-      </c>
-      <c r="J22" s="19" t="s">
-        <v>51</v>
-      </c>
-      <c r="K22" s="19" t="s">
-        <v>51</v>
+        <v>47</v>
+      </c>
+      <c r="F22" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="G22" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="H22" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="I22" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="J22" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="K22" s="0" t="s">
+        <v>49</v>
       </c>
       <c r="L22" s="19" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="M22" s="19" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="N22" s="19" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="O22" s="19" t="s">
-        <v>51</v>
-      </c>
-      <c r="P22" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q22" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="P22" s="19" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q22" s="19" t="s">
+        <v>50</v>
+      </c>
+      <c r="R22" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="S22" s="0" t="s">
         <v>13</v>
-      </c>
-      <c r="R22" s="0" t="s">
-        <v>50</v>
-      </c>
-      <c r="S22" s="0" t="s">
-        <v>12</v>
       </c>
       <c r="T22" s="0" t="n">
         <v>1</v>
       </c>
       <c r="U22" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="V22" s="0" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="16" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B23" s="0" t="s">
+        <v>84</v>
+      </c>
+      <c r="C23" s="0" t="s">
         <v>85</v>
       </c>
-      <c r="C23" s="0" t="s">
+      <c r="D23" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F23" s="19" t="s">
+        <v>50</v>
+      </c>
+      <c r="G23" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="H23" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="I23" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="J23" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="K23" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="L23" s="19" t="s">
+        <v>50</v>
+      </c>
+      <c r="M23" s="19" t="s">
+        <v>50</v>
+      </c>
+      <c r="N23" s="19" t="s">
+        <v>50</v>
+      </c>
+      <c r="O23" s="19" t="s">
+        <v>50</v>
+      </c>
+      <c r="P23" s="19" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q23" s="19" t="s">
+        <v>50</v>
+      </c>
+      <c r="R23" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="S23" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="U23" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="V23" s="0" t="s">
         <v>86</v>
-      </c>
-      <c r="D23" s="0" t="s">
-        <v>66</v>
-      </c>
-      <c r="E23" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="F23" s="0" t="s">
-        <v>49</v>
-      </c>
-      <c r="G23" s="18" t="s">
-        <v>48</v>
-      </c>
-      <c r="H23" s="18" t="s">
-        <v>48</v>
-      </c>
-      <c r="I23" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="J23" s="19" t="s">
-        <v>51</v>
-      </c>
-      <c r="K23" s="19" t="s">
-        <v>51</v>
-      </c>
-      <c r="L23" s="19" t="s">
-        <v>51</v>
-      </c>
-      <c r="M23" s="19" t="s">
-        <v>51</v>
-      </c>
-      <c r="N23" s="19" t="s">
-        <v>51</v>
-      </c>
-      <c r="O23" s="19" t="s">
-        <v>51</v>
-      </c>
-      <c r="P23" s="19" t="s">
-        <v>51</v>
-      </c>
-      <c r="Q23" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="R23" s="0" t="s">
-        <v>50</v>
-      </c>
-      <c r="S23" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="U23" s="0" t="s">
-        <v>56</v>
-      </c>
-      <c r="V23" s="0" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="16" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C24" s="0" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D24" s="0" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="F24" s="18" t="s">
+        <v>65</v>
+      </c>
+      <c r="F24" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="G24" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="H24" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="I24" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="J24" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="K24" s="0" t="s">
         <v>48</v>
       </c>
-      <c r="G24" s="18" t="s">
-        <v>48</v>
-      </c>
-      <c r="H24" s="0" t="s">
-        <v>61</v>
-      </c>
-      <c r="I24" s="0" t="s">
-        <v>49</v>
-      </c>
-      <c r="J24" s="19" t="s">
-        <v>51</v>
-      </c>
-      <c r="K24" s="19" t="s">
-        <v>51</v>
-      </c>
       <c r="L24" s="19" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="M24" s="19" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="N24" s="19" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="O24" s="19" t="s">
-        <v>51</v>
-      </c>
-      <c r="P24" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q24" s="0" t="s">
-        <v>13</v>
+        <v>50</v>
+      </c>
+      <c r="P24" s="19" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q24" s="19" t="s">
+        <v>50</v>
       </c>
       <c r="R24" s="18" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="S24" s="18" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="T24" s="18"/>
       <c r="U24" s="18" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="5" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="27" s="12" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="11" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B27" s="12" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C27" s="12" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D27" s="12" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E27" s="13" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F27" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="G27" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="H27" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="I27" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="J27" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="K27" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="G27" s="18" t="s">
-        <v>48</v>
-      </c>
-      <c r="H27" s="12" t="s">
+      <c r="L27" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="M27" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="N27" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="O27" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="P27" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q27" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="R27" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="I27" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="J27" s="15" t="s">
-        <v>51</v>
-      </c>
-      <c r="K27" s="15" t="s">
-        <v>51</v>
-      </c>
-      <c r="L27" s="15" t="s">
-        <v>51</v>
-      </c>
-      <c r="M27" s="15" t="s">
-        <v>51</v>
-      </c>
-      <c r="N27" s="15" t="s">
-        <v>51</v>
-      </c>
-      <c r="O27" s="15" t="s">
-        <v>51</v>
-      </c>
-      <c r="P27" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q27" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="R27" s="12" t="s">
-        <v>50</v>
-      </c>
       <c r="S27" s="12" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="T27" s="12" t="n">
         <v>1</v>
       </c>
       <c r="U27" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="V27" s="12" t="s">
-        <v>91</v>
-      </c>
+        <v>90</v>
+      </c>
+      <c r="AMI27" s="0"/>
+      <c r="AMJ27" s="0"/>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="16" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B28" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="C28" s="0" t="s">
         <v>92</v>
       </c>
-      <c r="C28" s="0" t="s">
+      <c r="D28" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F28" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="G28" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="H28" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="I28" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="J28" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="K28" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="L28" s="19" t="s">
+        <v>50</v>
+      </c>
+      <c r="M28" s="19" t="s">
+        <v>50</v>
+      </c>
+      <c r="N28" s="19" t="s">
+        <v>50</v>
+      </c>
+      <c r="O28" s="19" t="s">
+        <v>50</v>
+      </c>
+      <c r="P28" s="19" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q28" s="19" t="s">
+        <v>50</v>
+      </c>
+      <c r="R28" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="S28" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="U28" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="V28" s="0" t="s">
         <v>93</v>
-      </c>
-      <c r="D28" s="0" t="s">
-        <v>66</v>
-      </c>
-      <c r="E28" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="F28" s="0" t="s">
-        <v>49</v>
-      </c>
-      <c r="G28" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="H28" s="0" t="s">
-        <v>61</v>
-      </c>
-      <c r="I28" s="0" t="s">
-        <v>50</v>
-      </c>
-      <c r="J28" s="19" t="s">
-        <v>51</v>
-      </c>
-      <c r="K28" s="19" t="s">
-        <v>51</v>
-      </c>
-      <c r="L28" s="19" t="s">
-        <v>51</v>
-      </c>
-      <c r="M28" s="19" t="s">
-        <v>51</v>
-      </c>
-      <c r="N28" s="19" t="s">
-        <v>51</v>
-      </c>
-      <c r="O28" s="19" t="s">
-        <v>51</v>
-      </c>
-      <c r="P28" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q28" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="R28" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="S28" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="U28" s="0" t="s">
-        <v>56</v>
-      </c>
-      <c r="V28" s="0" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="16" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B29" s="0" t="s">
+        <v>69</v>
+      </c>
+      <c r="C29" s="0" t="s">
         <v>70</v>
       </c>
-      <c r="C29" s="0" t="s">
-        <v>71</v>
-      </c>
       <c r="D29" s="0" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F29" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="G29" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="H29" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="I29" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="J29" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="K29" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="L29" s="19" t="s">
+        <v>50</v>
+      </c>
+      <c r="M29" s="19" t="s">
+        <v>50</v>
+      </c>
+      <c r="N29" s="19" t="s">
+        <v>50</v>
+      </c>
+      <c r="O29" s="19" t="s">
+        <v>50</v>
+      </c>
+      <c r="P29" s="19" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q29" s="19" t="s">
+        <v>50</v>
+      </c>
+      <c r="R29" s="0" t="s">
         <v>49</v>
       </c>
-      <c r="G29" s="18" t="s">
-        <v>48</v>
-      </c>
-      <c r="H29" s="0" t="s">
-        <v>61</v>
-      </c>
-      <c r="I29" s="0" t="s">
-        <v>49</v>
-      </c>
-      <c r="J29" s="19" t="s">
-        <v>51</v>
-      </c>
-      <c r="K29" s="19" t="s">
-        <v>51</v>
-      </c>
-      <c r="L29" s="19" t="s">
-        <v>51</v>
-      </c>
-      <c r="M29" s="19" t="s">
-        <v>51</v>
-      </c>
-      <c r="N29" s="19" t="s">
-        <v>51</v>
-      </c>
-      <c r="O29" s="19" t="s">
-        <v>51</v>
-      </c>
-      <c r="P29" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q29" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="R29" s="0" t="s">
-        <v>50</v>
-      </c>
       <c r="S29" s="7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="T29" s="7" t="n">
         <v>1</v>
       </c>
       <c r="U29" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="V29" s="0" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="16" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B30" s="0" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C30" s="0" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D30" s="0" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="F30" s="18" t="s">
-        <v>48</v>
-      </c>
-      <c r="G30" s="7" t="s">
-        <v>61</v>
+        <v>29</v>
+      </c>
+      <c r="F30" s="19" t="s">
+        <v>50</v>
+      </c>
+      <c r="G30" s="0" t="s">
+        <v>14</v>
       </c>
       <c r="H30" s="18" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I30" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="J30" s="19" t="s">
-        <v>51</v>
-      </c>
-      <c r="K30" s="19" t="s">
-        <v>51</v>
+        <v>60</v>
+      </c>
+      <c r="J30" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="K30" s="7" t="s">
+        <v>12</v>
       </c>
       <c r="L30" s="19" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="M30" s="19" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="N30" s="19" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="O30" s="19" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="P30" s="19" t="s">
-        <v>51</v>
-      </c>
-      <c r="Q30" s="0" t="s">
-        <v>13</v>
+        <v>50</v>
+      </c>
+      <c r="Q30" s="19" t="s">
+        <v>50</v>
       </c>
       <c r="R30" s="18" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="S30" s="18" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="T30" s="18"/>
       <c r="U30" s="18" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="V30" s="0" t="s">
+        <v>75</v>
+      </c>
+      <c r="W30" s="0" t="s">
         <v>76</v>
-      </c>
-      <c r="W30" s="0" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="32" s="7" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B32" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="B32" s="7" t="s">
+      <c r="C32" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="C32" s="7" t="s">
+      <c r="D32" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="D32" s="7" t="s">
+      <c r="E32" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="E32" s="8" t="s">
+      <c r="F32" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G32" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="H32" s="9"/>
+      <c r="I32" s="9"/>
+      <c r="J32" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="K32" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="L32" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="F32" s="9"/>
-      <c r="G32" s="9"/>
-      <c r="H32" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="I32" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="J32" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="K32" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="L32" s="9"/>
-      <c r="M32" s="9"/>
+      <c r="M32" s="7" t="s">
+        <v>30</v>
+      </c>
       <c r="N32" s="9"/>
       <c r="O32" s="9"/>
-      <c r="P32" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q32" s="7" t="s">
-        <v>13</v>
-      </c>
+      <c r="P32" s="9"/>
+      <c r="Q32" s="9"/>
       <c r="R32" s="10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="S32" s="10"/>
       <c r="T32" s="10"/>
       <c r="U32" s="10"/>
       <c r="V32" s="7" t="s">
-        <v>33</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="AMI32" s="0"/>
+      <c r="AMJ32" s="0"/>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="B33" s="0" t="s">
         <v>34</v>
       </c>
-      <c r="B33" s="0" t="s">
+      <c r="C33" s="0" t="s">
         <v>35</v>
       </c>
-      <c r="C33" s="0" t="s">
+      <c r="D33" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="D33" s="7" t="s">
+      <c r="E33" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="F33" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="G33" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="H33" s="9"/>
+      <c r="I33" s="9"/>
+      <c r="J33" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="K33" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="L33" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="E33" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="F33" s="9"/>
-      <c r="G33" s="9"/>
-      <c r="H33" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="I33" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="J33" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="K33" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="L33" s="9"/>
-      <c r="M33" s="9"/>
+      <c r="M33" s="7" t="s">
+        <v>37</v>
+      </c>
       <c r="N33" s="9"/>
       <c r="O33" s="9"/>
-      <c r="P33" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q33" s="0" t="s">
-        <v>13</v>
-      </c>
+      <c r="P33" s="9"/>
+      <c r="Q33" s="9"/>
       <c r="R33" s="9"/>
       <c r="S33" s="9"/>
       <c r="T33" s="9"/>
       <c r="U33" s="9"/>
       <c r="V33" s="0" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="5">
     <mergeCell ref="C1:E1"/>
-    <mergeCell ref="F1:I1"/>
-    <mergeCell ref="J1:O1"/>
-    <mergeCell ref="P1:S1"/>
+    <mergeCell ref="H1:K1"/>
+    <mergeCell ref="L1:Q1"/>
     <mergeCell ref="R3:U3"/>
     <mergeCell ref="R32:U32"/>
   </mergeCells>
